--- a/project/PI/MapPhase_ratio.xlsx
+++ b/project/PI/MapPhase_ratio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-160" yWindow="460" windowWidth="27320" windowHeight="13920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Job</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>DFSIO</t>
+  </si>
+  <si>
+    <t>PageRank</t>
+  </si>
+  <si>
+    <t>Nutch Indexing</t>
+  </si>
+  <si>
+    <t>PageRank1</t>
+  </si>
+  <si>
+    <t>PageRank2</t>
+  </si>
+  <si>
+    <t>XML phase data</t>
+  </si>
+  <si>
+    <t>rankCalculate</t>
+  </si>
+  <si>
+    <t>PageRank3</t>
+  </si>
+  <si>
+    <t>PageRank4</t>
   </si>
 </sst>
 </file>
@@ -148,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +195,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,6 +225,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,9 +406,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:f>Sheet3!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Terasort 512 Mb.</c:v>
                 </c:pt>
@@ -378,12 +416,15 @@
                   <c:v>NaïveBay Classification</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>DFSIO</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Wordcount 512 Mb.</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>DFSIO</c:v>
+                <c:pt idx="4">
+                  <c:v>PageRank</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Kmean Clustering</c:v>
                 </c:pt>
               </c:strCache>
@@ -391,10 +432,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:f>Sheet3!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>54.1304556463559</c:v>
                 </c:pt>
@@ -402,12 +443,15 @@
                   <c:v>77.66143106457243</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>99.72708012972072</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>85.94052079900465</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.72708012972072</c:v>
+                <c:pt idx="4">
+                  <c:v>68.68572566058053</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>99.9522861880293</c:v>
                 </c:pt>
               </c:numCache>
@@ -515,9 +559,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:f>Sheet3!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Terasort 512 Mb.</c:v>
                 </c:pt>
@@ -525,12 +569,15 @@
                   <c:v>NaïveBay Classification</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>DFSIO</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Wordcount 512 Mb.</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>DFSIO</c:v>
+                <c:pt idx="4">
+                  <c:v>PageRank</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Kmean Clustering</c:v>
                 </c:pt>
               </c:strCache>
@@ -538,10 +585,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:f>Sheet3!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45.86954435364409</c:v>
                 </c:pt>
@@ -549,12 +596,15 @@
                   <c:v>22.33856893542757</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.272919870279287</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>14.05947920099534</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.272919870279287</c:v>
+                <c:pt idx="4">
+                  <c:v>31.31427433941948</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.0477138119707122</c:v>
                 </c:pt>
               </c:numCache>
@@ -778,7 +828,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6184900" cy="3759200"/>
@@ -1067,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:F40"/>
+    <sheetView topLeftCell="A46" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,6 +1653,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
       <c r="B40">
         <v>267844</v>
       </c>
@@ -1620,6 +1673,208 @@
       <c r="F40">
         <f t="shared" ref="F40" si="24">(C40/D40)*100</f>
         <v>0.27291987027928677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>4426363</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C46" si="25">D43-B43</f>
+        <v>351428</v>
+      </c>
+      <c r="D43">
+        <v>4777791</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="26">(B43/D43)*100</f>
+        <v>92.644550588336756</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="27">(C43/D43)*100</f>
+        <v>7.3554494116632565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>4287999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="25"/>
+        <v>285570</v>
+      </c>
+      <c r="D44">
+        <v>4573569</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E46" si="28">(B44/D44)*100</f>
+        <v>93.756079770524948</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F46" si="29">(C44/D44)*100</f>
+        <v>6.243920229475056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>4360790</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="25"/>
+        <v>285447</v>
+      </c>
+      <c r="D45">
+        <v>4646237</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="28"/>
+        <v>93.856383133275372</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="29"/>
+        <v>6.1436168667246198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>3716795</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="25"/>
+        <v>244481</v>
+      </c>
+      <c r="D46">
+        <v>3961276</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="28"/>
+        <v>93.828226056452507</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="29"/>
+        <v>6.1717739435474828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>AVERAGE(B43:B46)</f>
+        <v>4197986.75</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:F47" si="30">AVERAGE(C43:C46)</f>
+        <v>291731.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="30"/>
+        <v>4489718.25</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="30"/>
+        <v>93.521309887147396</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="30"/>
+        <v>6.478690112852604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>1733006</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49" si="31">D49-B49</f>
+        <v>714416</v>
+      </c>
+      <c r="D49">
+        <v>2447422</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="32">(B49/D49)*100</f>
+        <v>70.809447655533049</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="33">(C49/D49)*100</f>
+        <v>29.190552344466951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>1684028</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="34">D53-B53</f>
+        <v>796576</v>
+      </c>
+      <c r="D53">
+        <v>2480604</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="35">(B53/D53)*100</f>
+        <v>67.887820869433412</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53" si="36">(C53/D53)*100</f>
+        <v>32.112179130566588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>1663556</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56" si="37">D56-B56</f>
+        <v>806097</v>
+      </c>
+      <c r="D56">
+        <v>2469653</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56" si="38">(B56/D56)*100</f>
+        <v>67.359908456775102</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="39">(C56/D56)*100</f>
+        <v>32.640091543224898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <f>AVERAGE(E49,E53,E56)</f>
+        <v>68.68572566058053</v>
+      </c>
+      <c r="F59">
+        <f>AVERAGE(F49,F53,F56)</f>
+        <v>31.31427433941948</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1684,45 +1939,76 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>85.940520799004659</v>
+        <v>99.727080129720719</v>
       </c>
       <c r="D4" s="4">
-        <v>14.059479200995337</v>
+        <v>0.27291987027928677</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>99.727080129720719</v>
+        <v>85.940520799004659</v>
       </c>
       <c r="D5" s="4">
-        <v>0.27291987027928677</v>
+        <v>14.059479200995337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>68.68572566058053</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31.31427433941948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>99.952286188029305</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>4.7713811970712221E-2</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/PI/MapPhase_ratio.xlsx
+++ b/project/PI/MapPhase_ratio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="460" windowWidth="27320" windowHeight="13920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -827,9 +827,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>568570</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78153</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6184900" cy="3759200"/>
     <xdr:graphicFrame macro="">
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="142" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" workbookViewId="0">
       <selection activeCell="E59" sqref="E59:F59"/>
     </sheetView>
   </sheetViews>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/project/PI/MapPhase_ratio.xlsx
+++ b/project/PI/MapPhase_ratio.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="PI" sheetId="3" r:id="rId2"/>
     <sheet name="KMean" sheetId="2" r:id="rId3"/>
+    <sheet name="HP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Job</t>
   </si>
@@ -88,9 +89,6 @@
     <t>Kmean Clustering</t>
   </si>
   <si>
-    <t>NaïveBay Classification</t>
-  </si>
-  <si>
     <t>Terasort 512 Mb.</t>
   </si>
   <si>
@@ -132,6 +130,36 @@
   <si>
     <t>PageRank4</t>
   </si>
+  <si>
+    <t>NaïveBay Classification Mahout</t>
+  </si>
+  <si>
+    <t>Kmean Clustering Mahout</t>
+  </si>
+  <si>
+    <t>Wordcount</t>
+  </si>
+  <si>
+    <t>TeraSort</t>
+  </si>
+  <si>
+    <t>Page Rank1</t>
+  </si>
+  <si>
+    <t>Page Rank4</t>
+  </si>
+  <si>
+    <t>Page Rank2</t>
+  </si>
+  <si>
+    <t>Page Rank3</t>
+  </si>
+  <si>
+    <t>Kmean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmean Clustering </t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +199,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,17 +229,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -225,7 +248,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -406,14 +429,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$B$2:$B$7</c:f>
+              <c:f>PI!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Terasort 512 Mb.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NaïveBay Classification</c:v>
+                  <c:v>NaïveBay Classification Mahout</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DFSIO</c:v>
@@ -425,6 +448,9 @@
                   <c:v>PageRank</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Kmean Clustering Mahout</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Kmean Clustering</c:v>
                 </c:pt>
               </c:strCache>
@@ -432,15 +458,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$7</c:f>
+              <c:f>PI!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>54.1304556463559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.66143106457243</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99.72708012972072</c:v>
@@ -452,6 +478,9 @@
                   <c:v>68.68572566058053</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>99.73201154392767</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>99.9522861880293</c:v>
                 </c:pt>
               </c:numCache>
@@ -559,14 +588,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$B$2:$B$7</c:f>
+              <c:f>PI!$B$2:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Terasort 512 Mb.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NaïveBay Classification</c:v>
+                  <c:v>NaïveBay Classification Mahout</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DFSIO</c:v>
@@ -578,6 +607,9 @@
                   <c:v>PageRank</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Kmean Clustering Mahout</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Kmean Clustering</c:v>
                 </c:pt>
               </c:strCache>
@@ -585,15 +617,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$7</c:f>
+              <c:f>PI!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>45.86954435364409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.33856893542757</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.272919870279287</c:v>
@@ -605,6 +637,9 @@
                   <c:v>31.31427433941948</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.267988456072335</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.0477138119707122</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,11 +657,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2100619488"/>
-        <c:axId val="2098746160"/>
+        <c:axId val="-2123664336"/>
+        <c:axId val="-2123661104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100619488"/>
+        <c:axId val="-2123664336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098746160"/>
+        <c:crossAx val="-2123661104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -676,7 +711,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098746160"/>
+        <c:axId val="-2123661104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -762,7 +797,599 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100619488"/>
+        <c:crossAx val="-2123664336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Map Phase Weight Ratio of each Job Types</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HP!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Terasort 512 Mb.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NaïveBay Classification Mahout</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DFSIO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wordcount 512 Mb.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PageRank</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Kmean Clustering Mahout</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kmean Clustering </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HP!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>68.79066034546706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.15471075348084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.57640943862194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.96000558679772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.83275866381828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.51126606220394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HP!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Terasort 512 Mb.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NaïveBay Classification Mahout</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DFSIO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wordcount 512 Mb.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PageRank</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Kmean Clustering Mahout</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kmean Clustering </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HP!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.20933965453293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.845289246519154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.42359056137807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.03999441320228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.167241336181702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.488733937796058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2121059072"/>
+        <c:axId val="-2119604080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2121059072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2119604080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119604080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Scale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121059072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -823,6 +1450,38 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568570</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78153</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6184900" cy="3759200"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1117,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:F59"/>
+    <sheetView topLeftCell="A50" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1995,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>5141435</v>
@@ -1441,7 +2100,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>469687</v>
@@ -1546,30 +2205,50 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>49840</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29" si="12">D29-B29</f>
+        <f t="shared" ref="C29:C30" si="12">D29-B29</f>
         <v>14336</v>
       </c>
       <c r="D29">
         <v>64176</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29" si="13">(B29/D29)*100</f>
+        <f t="shared" ref="E29:E30" si="13">(B29/D29)*100</f>
         <v>77.661431064572426</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29" si="14">(C29/D29)*100</f>
+        <f t="shared" ref="F29:F30" si="14">(C29/D29)*100</f>
         <v>22.338568935427574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>233606</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>233606</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>50940</v>
@@ -1616,7 +2295,7 @@
         <v>50871</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D37" si="20">AVERAGE(C33:C34)</f>
+        <f t="shared" ref="C35:D35" si="20">AVERAGE(C33:C34)</f>
         <v>599</v>
       </c>
       <c r="D35">
@@ -1654,7 +2333,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>267844</v>
@@ -1677,7 +2356,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>4426363</v>
@@ -1700,7 +2379,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>4287999</v>
@@ -1785,7 +2464,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
         <v>1733006</v>
@@ -1808,17 +2487,17 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>1684028</v>
@@ -1841,12 +2520,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>1663556</v>
@@ -1875,6 +2554,126 @@
       <c r="F59">
         <f>AVERAGE(F49,F53,F56)</f>
         <v>31.31427433941948</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>1272936</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:C68" si="40">D63-B63</f>
+        <v>615</v>
+      </c>
+      <c r="D63">
+        <v>1273551</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63" si="41">(B63/D63)*100</f>
+        <v>99.951709825519359</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="42">(C63/D63)*100</f>
+        <v>4.8290174480645064E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>1589397</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="40"/>
+        <v>613</v>
+      </c>
+      <c r="D64">
+        <v>1590010</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:E68" si="43">(B64/D64)*100</f>
+        <v>99.961446783353566</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64:F68" si="44">(C64/D64)*100</f>
+        <v>3.8553216646436184E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1315472</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="40"/>
+        <v>651</v>
+      </c>
+      <c r="D65">
+        <v>1316123</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="43"/>
+        <v>99.950536537998346</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="44"/>
+        <v>4.9463462001651824E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>1740964</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="40"/>
+        <v>614</v>
+      </c>
+      <c r="D66">
+        <v>1741578</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="43"/>
+        <v>99.964744616663737</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="44"/>
+        <v>3.5255383336261714E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>1902238</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="40"/>
+        <v>586</v>
+      </c>
+      <c r="D67">
+        <v>1902824</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="43"/>
+        <v>99.969203667811641</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="44"/>
+        <v>3.0796332188368445E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>1536981</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="40"/>
+        <v>598</v>
+      </c>
+      <c r="D68">
+        <v>1537579</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="43"/>
+        <v>99.961107689426044</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="44"/>
+        <v>3.8892310573960753E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1884,16 +2683,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1914,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>54.130455646355912</v>
@@ -1928,13 +2727,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>77.661431064572426</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <v>22.338568935427574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1942,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>99.727080129720719</v>
@@ -1956,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>85.940520799004659</v>
@@ -1970,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>68.68572566058053</v>
@@ -1980,35 +2779,28 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>99.732011543927669</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.26798845607233551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>99.952286188029305</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8">
         <v>4.7713811970712221E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2068,18 +2860,18 @@
         <v>1288584</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">D3-B3</f>
+        <f t="shared" ref="C3:C19" si="0">D3-B3</f>
         <v>617</v>
       </c>
       <c r="D3">
         <v>1289201</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="1">(B3/D3)*100</f>
+        <f t="shared" ref="E3:E19" si="1">(B3/D3)*100</f>
         <v>99.952140899673509</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F21" si="2">(C3/D3)*100</f>
+        <f t="shared" ref="F3:F19" si="2">(C3/D3)*100</f>
         <v>4.7859100326481281E-2</v>
       </c>
     </row>
@@ -2148,324 +2940,1712 @@
         <v>1475707</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7:C8" si="3">D7-B7</f>
         <v>892</v>
       </c>
       <c r="D7">
         <v>1476599</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>99.939590911276525</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>6.0409088723478756E-2</v>
-      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1192067</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>660</v>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D8">
         <v>1192727</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="e">
         <f t="shared" si="1"/>
-        <v>99.944664621493445</v>
-      </c>
-      <c r="F8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="e">
         <f t="shared" si="2"/>
-        <v>5.5335378506565204E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>1236784</v>
+        <v>1125147</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="D9">
-        <v>1237408</v>
+        <v>1125699</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>99.94957200858569</v>
+        <v>99.95096380115821</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>5.0427991414311209E-2</v>
+        <v>4.9036198841786297E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>1163192</v>
+        <v>1271099</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>589</v>
+        <v>304</v>
       </c>
       <c r="D10">
-        <v>1163781</v>
+        <v>1271403</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>99.949389103276303</v>
+        <v>99.976089406741991</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>5.0610896723696293E-2</v>
+        <v>2.3910593257999234E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1125147</v>
+        <v>1158455</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="D11">
-        <v>1125699</v>
+        <v>1158975</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>99.95096380115821</v>
+        <v>99.955132768178771</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>4.9036198841786297E-2</v>
+        <v>4.4867231821221334E-2</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1271099</v>
+        <v>1187152</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="D12">
-        <v>1271403</v>
+        <v>1187756</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>99.976089406741991</v>
+        <v>99.949147804767975</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>2.3910593257999234E-2</v>
+        <v>5.0852195232017353E-2</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1158455</v>
+        <v>1226836</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="D13">
-        <v>1158975</v>
+        <v>1227379</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>99.955132768178771</v>
+        <v>99.955759386464976</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>4.4867231821221334E-2</v>
+        <v>4.4240613535020561E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>1187152</v>
+        <v>1059826</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="D14">
-        <v>1187756</v>
+        <v>1060398</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>99.949147804767975</v>
+        <v>99.946057989547327</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>5.0852195232017353E-2</v>
+        <v>5.3942010452679087E-2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>1226836</v>
+        <v>1265525</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="D15">
-        <v>1227379</v>
+        <v>1266083</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>99.955759386464976</v>
+        <v>99.955927060074259</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>4.4240613535020561E-2</v>
+        <v>4.407293992573947E-2</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1059826</v>
+        <v>1332337</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>631</v>
       </c>
       <c r="D16">
-        <v>1060398</v>
+        <v>1332968</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>99.946057989547327</v>
+        <v>99.952662029396052</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>5.3942010452679087E-2</v>
+        <v>4.7337970603945484E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1265525</v>
+        <v>1169841</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="D17">
-        <v>1266083</v>
+        <v>1170555</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>99.955927060074259</v>
+        <v>99.939003293309582</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>4.407293992573947E-2</v>
+        <v>6.0996706690416083E-2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>1332337</v>
+        <v>1524368</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>243</v>
       </c>
       <c r="D18">
-        <v>1332968</v>
+        <v>1524611</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>99.952662029396052</v>
+        <v>99.984061508148642</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>4.7337970603945484E-2</v>
+        <v>1.5938491851364051E-2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>1169841</v>
+        <v>1193877</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>714</v>
+        <v>520</v>
       </c>
       <c r="D19">
-        <v>1170555</v>
+        <v>1194397</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>99.939003293309582</v>
+        <v>99.956463386964302</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>6.0996706690416083E-2</v>
+        <v>4.3536613035699188E-2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1524368</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>243</v>
+        <f>AVERAGE(B2:B19)</f>
+        <v>1279750.1176470588</v>
+      </c>
+      <c r="C20" t="e">
+        <f>AVERAGE(C2:C19)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D20">
-        <v>1524611</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>99.984061508148642</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>1.5938491851364051E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1193877</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="D21">
-        <v>1194397</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>99.956463386964302</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>4.3536613035699188E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <f>AVERAGE(B2:B21)</f>
-        <v>1267389.75</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:F22" si="3">AVERAGE(C2:C21)</f>
-        <v>594.54999999999995</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>1267984.3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>99.952286188029305</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>4.7713811970712221E-2</v>
+        <f>AVERAGE(D2:D19)</f>
+        <v>1275472.0555555555</v>
+      </c>
+      <c r="E20" t="e">
+        <f>AVERAGE(E2:E19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="e">
+        <f>AVERAGE(F2:F19)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>217897</v>
+      </c>
+      <c r="C23">
+        <f>D23-B23</f>
+        <v>655</v>
+      </c>
+      <c r="D23">
+        <v>218552</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E24" si="4">(B23/D23)*100</f>
+        <v>99.70030015739961</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F24" si="5">(C23/D23)*100</f>
+        <v>0.29969984260038801</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>181763</v>
+      </c>
+      <c r="C24">
+        <f>D24-B24</f>
+        <v>465</v>
+      </c>
+      <c r="D24">
+        <v>182228</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>99.744825164080169</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>0.2551748359198367</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>231466</v>
+      </c>
+      <c r="C25">
+        <f>D25-B25</f>
+        <v>578</v>
+      </c>
+      <c r="D25">
+        <v>232044</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="6">(B25/D25)*100</f>
+        <v>99.750909310303214</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="7">(C25/D25)*100</f>
+        <v>0.24909068969678166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f>AVERAGE(B23:B25)</f>
+        <v>210375.33333333334</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="8">AVERAGE(C23:C25)</f>
+        <v>566</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>210941.33333333334</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>99.732011543927669</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>0.26798845607233551</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>68.79066034546706</v>
+      </c>
+      <c r="D2" s="4">
+        <v>31.209339654532933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>99.154710753480842</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.84528924651915427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>83.576409438621937</v>
+      </c>
+      <c r="D5" s="4">
+        <v>16.423590561378067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>65.96000558679772</v>
+      </c>
+      <c r="D6" s="4">
+        <v>34.03999441320228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>98.832758663818282</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.1672413361817022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>99.511266062203944</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.48873393779605812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>34523</v>
+      </c>
+      <c r="E44">
+        <f>F44-D44</f>
+        <v>16680</v>
+      </c>
+      <c r="F44">
+        <v>51203</v>
+      </c>
+      <c r="G44">
+        <f>(D44/F44)*100</f>
+        <v>67.423783762670155</v>
+      </c>
+      <c r="H44">
+        <f>(E44/F44)*100</f>
+        <v>32.576216237329838</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>37559</v>
+      </c>
+      <c r="E45">
+        <f>F45-D45</f>
+        <v>13832</v>
+      </c>
+      <c r="F45">
+        <v>51391</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G47" si="0">(D45/F45)*100</f>
+        <v>73.084781381954031</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H47" si="1">(E45/F45)*100</f>
+        <v>26.915218618045962</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>30081</v>
+      </c>
+      <c r="E46">
+        <f>F46-D46</f>
+        <v>14653</v>
+      </c>
+      <c r="F46">
+        <v>44734</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>67.244154334510668</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>32.755845665489339</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>30383</v>
+      </c>
+      <c r="E47">
+        <f>F47-D47</f>
+        <v>14689</v>
+      </c>
+      <c r="F47">
+        <v>45072</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>67.409921902733402</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>32.590078097266598</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f>AVERAGE(D44:D47)</f>
+        <v>33136.5</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:H48" si="2">AVERAGE(E44:E47)</f>
+        <v>14963.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>48100</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>68.79066034546706</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>31.209339654532933</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>137588</v>
+      </c>
+      <c r="E51">
+        <f>F51-D51</f>
+        <v>26216</v>
+      </c>
+      <c r="F51">
+        <v>163804</v>
+      </c>
+      <c r="G51">
+        <f>(D51/F51)*100</f>
+        <v>83.995506825230152</v>
+      </c>
+      <c r="H51">
+        <f>(E51/F51)*100</f>
+        <v>16.004493174769845</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>138389</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:E54" si="3">F52-D52</f>
+        <v>26394</v>
+      </c>
+      <c r="F52">
+        <v>164783</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G54" si="4">(D52/F52)*100</f>
+        <v>83.982571017641376</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H54" si="5">(E52/F52)*100</f>
+        <v>16.017428982358616</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>138094</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>26688</v>
+      </c>
+      <c r="F53">
+        <v>164782</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>83.804056268281741</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>16.19594373171827</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>114725</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>24296</v>
+      </c>
+      <c r="F54">
+        <v>139021</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>82.523503643334465</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>17.476496356665539</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f>AVERAGE(D51:D54)</f>
+        <v>132199</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:F55" si="6">AVERAGE(E51:E54)</f>
+        <v>25898.5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>158097.5</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="7">AVERAGE(G51:G54)</f>
+        <v>83.576409438621937</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="8">AVERAGE(H51:H54)</f>
+        <v>16.423590561378067</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>48632</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E69" si="9">F60-D60</f>
+        <v>326</v>
+      </c>
+      <c r="F60">
+        <v>48958</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:G61" si="10">(D60/F60)*100</f>
+        <v>99.334123125944686</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:H61" si="11">(E60/F60)*100</f>
+        <v>0.66587687405531271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>49365</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="9"/>
+        <v>449</v>
+      </c>
+      <c r="F61">
+        <v>49814</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="10"/>
+        <v>99.098646966716188</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="11"/>
+        <v>0.90135303328381589</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>46622</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="9"/>
+        <v>1184</v>
+      </c>
+      <c r="F62">
+        <v>47806</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:G70" si="12">(D62/F62)*100</f>
+        <v>97.52332343220516</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H70" si="13">(E62/F62)*100</f>
+        <v>2.4766765677948372</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>47688</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="9"/>
+        <v>305</v>
+      </c>
+      <c r="F63">
+        <v>47993</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="12"/>
+        <v>99.364490654887177</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="13"/>
+        <v>0.63550934511282897</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>73061</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="9"/>
+        <v>355</v>
+      </c>
+      <c r="F64">
+        <v>73416</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="12"/>
+        <v>99.516454178925571</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="13"/>
+        <v>0.48354582107442518</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>46531</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="9"/>
+        <v>308</v>
+      </c>
+      <c r="F65">
+        <v>46839</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="12"/>
+        <v>99.342428318281776</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="13"/>
+        <v>0.65757168171822622</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>46527</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="9"/>
+        <v>430</v>
+      </c>
+      <c r="F66">
+        <v>46957</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="12"/>
+        <v>99.084268586153286</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="13"/>
+        <v>0.91573141384671086</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>51394</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="9"/>
+        <v>298</v>
+      </c>
+      <c r="F67">
+        <v>51692</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="12"/>
+        <v>99.423508473264718</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="13"/>
+        <v>0.57649152673527826</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>51627</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
+        <v>325</v>
+      </c>
+      <c r="F68">
+        <v>51952</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="12"/>
+        <v>99.374422543886666</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="13"/>
+        <v>0.62557745611333537</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>73083</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="F69">
+        <v>73461</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="12"/>
+        <v>99.485441254543233</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="13"/>
+        <v>0.51455874545677294</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f>AVERAGE(D60:D69)</f>
+        <v>53453</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:F70" si="14">AVERAGE(E60:E69)</f>
+        <v>435.8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>53888.800000000003</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70" si="15">AVERAGE(G60:G69)</f>
+        <v>99.154710753480842</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70" si="16">AVERAGE(H60:H69)</f>
+        <v>0.84528924651915427</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>63921</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74" si="17">F74-D74</f>
+        <v>32894</v>
+      </c>
+      <c r="F74">
+        <v>96815</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74" si="18">(D74/F74)*100</f>
+        <v>66.023859939059022</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ref="H74" si="19">(E74/F74)*100</f>
+        <v>33.97614006094097</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>63907</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76" si="20">F76-D76</f>
+        <v>29989</v>
+      </c>
+      <c r="F76">
+        <v>93896</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76" si="21">(D76/F76)*100</f>
+        <v>68.061472267189231</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76" si="22">(E76/F76)*100</f>
+        <v>31.938527732810769</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>60652</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ref="E78" si="23">F78-D78</f>
+        <v>32607</v>
+      </c>
+      <c r="F78">
+        <v>93259</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78" si="24">(D78/F78)*100</f>
+        <v>65.036082308409917</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ref="H78" si="25">(E78/F78)*100</f>
+        <v>34.963917691590083</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80">
+        <v>61029</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80" si="26">F80-D80</f>
+        <v>33270</v>
+      </c>
+      <c r="F80">
+        <v>94299</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80" si="27">(D80/F80)*100</f>
+        <v>64.718607832532697</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ref="H80" si="28">(E80/F80)*100</f>
+        <v>35.28139216746731</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f>AVERAGE(D74,D76,D78,D80)</f>
+        <v>62377.25</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82:G82" si="29">AVERAGE(E74,E76,E78,E80)</f>
+        <v>32190</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="29"/>
+        <v>94567.25</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="29"/>
+        <v>65.96000558679772</v>
+      </c>
+      <c r="H82">
+        <f>AVERAGE(H74,H76,H78,H80)</f>
+        <v>34.03999441320228</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>36442</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85:E93" si="30">F85-D85</f>
+        <v>308</v>
+      </c>
+      <c r="F85">
+        <v>36750</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85" si="31">(D85/F85)*100</f>
+        <v>99.161904761904765</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85" si="32">(E85/F85)*100</f>
+        <v>0.83809523809523812</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>33317</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="30"/>
+        <v>313</v>
+      </c>
+      <c r="F86">
+        <v>33630</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G94" si="33">(D86/F86)*100</f>
+        <v>99.069283377936372</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:H94" si="34">(E86/F86)*100</f>
+        <v>0.93071662206363359</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>33236</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="30"/>
+        <v>315</v>
+      </c>
+      <c r="F87">
+        <v>33551</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="33"/>
+        <v>99.061130815772998</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="34"/>
+        <v>0.93886918422699772</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>35186</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="30"/>
+        <v>334</v>
+      </c>
+      <c r="F88">
+        <v>35520</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="33"/>
+        <v>99.059684684684697</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="34"/>
+        <v>0.9403153153153152</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>35320</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="30"/>
+        <v>619</v>
+      </c>
+      <c r="F89">
+        <v>35939</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="33"/>
+        <v>98.277637107320743</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="34"/>
+        <v>1.722362892679262</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>34841</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="30"/>
+        <v>183</v>
+      </c>
+      <c r="F90">
+        <v>35024</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="33"/>
+        <v>99.477501142074004</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="34"/>
+        <v>0.5224988579259936</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>34037</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="30"/>
+        <v>614</v>
+      </c>
+      <c r="F91">
+        <v>34651</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="33"/>
+        <v>98.228045366656076</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="34"/>
+        <v>1.7719546333439151</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>35022</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="30"/>
+        <v>331</v>
+      </c>
+      <c r="F92">
+        <v>35353</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="33"/>
+        <v>99.063728679319993</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="34"/>
+        <v>0.93627132067999885</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>35156</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="30"/>
+        <v>517</v>
+      </c>
+      <c r="F93">
+        <v>35673</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="33"/>
+        <v>98.550724637681171</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="34"/>
+        <v>1.4492753623188406</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>39362</v>
+      </c>
+      <c r="E94">
+        <f>F94-D94</f>
+        <v>649</v>
+      </c>
+      <c r="F94">
+        <v>40011</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="33"/>
+        <v>98.377946064832173</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="34"/>
+        <v>1.6220539351678289</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f>AVERAGE(D85:D94)</f>
+        <v>35191.9</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95:H95" si="35">AVERAGE(E85:E94)</f>
+        <v>418.3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="35"/>
+        <v>35610.199999999997</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="35"/>
+        <v>98.832758663818282</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="35"/>
+        <v>1.1672413361817022</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101">
+        <v>193681</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101:E120" si="36">F101-D101</f>
+        <v>487</v>
+      </c>
+      <c r="F101">
+        <v>194168</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101" si="37">(D101/F101)*100</f>
+        <v>99.749186271682248</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ref="H101:H120" si="38">(E101/F101)*100</f>
+        <v>0.25081372831774545</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>197760</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="36"/>
+        <v>367</v>
+      </c>
+      <c r="F102">
+        <v>198127</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:G120" si="39">(D102/F102)*100</f>
+        <v>99.814765276817397</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="38"/>
+        <v>0.18523472318260512</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>60026</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="36"/>
+        <v>377</v>
+      </c>
+      <c r="F103">
+        <v>60403</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="39"/>
+        <v>99.375858814959514</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="38"/>
+        <v>0.62414118504047811</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>202697</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="36"/>
+        <v>362</v>
+      </c>
+      <c r="F104">
+        <v>203059</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="39"/>
+        <v>99.821726690272286</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="38"/>
+        <v>0.1782733097277146</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>74007</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="36"/>
+        <v>375</v>
+      </c>
+      <c r="F105">
+        <v>74382</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="39"/>
+        <v>99.495845769137688</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="38"/>
+        <v>0.50415423086230537</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>66222</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="36"/>
+        <v>371</v>
+      </c>
+      <c r="F106">
+        <v>66593</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="39"/>
+        <v>99.442884387247915</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="38"/>
+        <v>0.55711561275209098</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>60566</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="36"/>
+        <v>336</v>
+      </c>
+      <c r="F107">
+        <v>60902</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="39"/>
+        <v>99.448293980493247</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="38"/>
+        <v>0.55170601950674858</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>64990</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="36"/>
+        <v>406</v>
+      </c>
+      <c r="F108">
+        <v>65396</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="39"/>
+        <v>99.379166921524259</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="38"/>
+        <v>0.62083307847574776</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>96385</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="36"/>
+        <v>349</v>
+      </c>
+      <c r="F109">
+        <v>96734</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="39"/>
+        <v>99.639216821386484</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="38"/>
+        <v>0.3607831786135175</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>61554</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="36"/>
+        <v>338</v>
+      </c>
+      <c r="F110">
+        <v>61892</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="39"/>
+        <v>99.453887416790536</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="38"/>
+        <v>0.54611258320946166</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>64927</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="36"/>
+        <v>330</v>
+      </c>
+      <c r="F111">
+        <v>65257</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="39"/>
+        <v>99.494307124139937</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="38"/>
+        <v>0.50569287586006095</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>61877</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="36"/>
+        <v>349</v>
+      </c>
+      <c r="F112">
+        <v>62226</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="39"/>
+        <v>99.439141194998868</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="38"/>
+        <v>0.56085880500112484</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>61968</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="36"/>
+        <v>327</v>
+      </c>
+      <c r="F113">
+        <v>62295</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="39"/>
+        <v>99.475078256681911</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="38"/>
+        <v>0.52492174331808328</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>63400</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="36"/>
+        <v>354</v>
+      </c>
+      <c r="F114">
+        <v>63754</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="39"/>
+        <v>99.444740722150769</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="38"/>
+        <v>0.55525927784923301</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>58726</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="36"/>
+        <v>355</v>
+      </c>
+      <c r="F115">
+        <v>59081</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="39"/>
+        <v>99.399130007955179</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="38"/>
+        <v>0.60086999204481983</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>64798</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="36"/>
+        <v>361</v>
+      </c>
+      <c r="F116">
+        <v>65159</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="39"/>
+        <v>99.445970625700213</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="38"/>
+        <v>0.55402937429978971</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>62571</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="36"/>
+        <v>343</v>
+      </c>
+      <c r="F117">
+        <v>62914</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="39"/>
+        <v>99.45481132975172</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="38"/>
+        <v>0.54518867024827544</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>58990</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="36"/>
+        <v>346</v>
+      </c>
+      <c r="F118">
+        <v>59336</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="39"/>
+        <v>99.416880140218424</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="38"/>
+        <v>0.58311985978158287</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>69156</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="36"/>
+        <v>327</v>
+      </c>
+      <c r="F119">
+        <v>69483</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="39"/>
+        <v>99.529381287509182</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="38"/>
+        <v>0.4706187124908251</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>65539</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="36"/>
+        <v>326</v>
+      </c>
+      <c r="F120">
+        <v>65865</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="39"/>
+        <v>99.505048204661051</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="38"/>
+        <v>0.49495179533895084</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f>AVERAGE(D101:D120)</f>
+        <v>85492</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ref="E121:H121" si="40">AVERAGE(E101:E120)</f>
+        <v>359.3</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="40"/>
+        <v>85851.3</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="40"/>
+        <v>99.511266062203944</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="40"/>
+        <v>0.48873393779605812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>